--- a/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
+++ b/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,441 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
+++ b/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时第三产业成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4384</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -978,64 +952,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
+++ b/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -515,6 +532,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银聚安混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011787</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银聚安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
+++ b/数据整理/stocks/A股/创业板/301101-明月镜片.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -532,6 +549,934 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1647,7 +2592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
